--- a/data/trans_orig/P1403-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13180108-93C8-479A-B619-DE6E22AFD11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B80AFFD-7A0C-4F40-9228-2D9C18668247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6256C004-1F24-4432-8EC8-4FD6ECB5CFAD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFF085CA-503B-4D72-9F63-2D506A5B6170}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="325">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>26,11%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>73,89%</t>
   </si>
   <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,841 +164,826 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,81%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
   </si>
   <si>
     <t>84,17%</t>
   </si>
   <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>20,18%</t>
+    <t>20,2%</t>
   </si>
   <si>
     <t>26,21%</t>
@@ -1007,28 +992,28 @@
     <t>80,44%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>76,3%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>78,25%</t>
   </si>
   <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DF745D-CE23-4C6C-839B-279B8E5016F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8037F048-7F8E-4CE7-844B-B7764754580C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2311,7 +2296,7 @@
         <v>5518</v>
       </c>
       <c r="N18" s="7">
-        <v>5655720</v>
+        <v>5655721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>96</v>
@@ -2362,7 +2347,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2395,7 +2380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C94E098-B115-41CB-9CC3-7F44426DE4B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4586FE-9516-4E11-BF60-AB189154577A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,7 +2839,7 @@
         <v>3184</v>
       </c>
       <c r="N10" s="7">
-        <v>3382557</v>
+        <v>3382556</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>137</v>
@@ -2905,7 +2890,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3018,7 +3003,7 @@
         <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3018,13 @@
         <v>438094</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>387</v>
@@ -3048,13 +3033,13 @@
         <v>427117</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>788</v>
@@ -3063,13 +3048,13 @@
         <v>865212</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3173,13 @@
         <v>575244</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>691</v>
@@ -3203,13 +3188,13 @@
         <v>745194</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>1214</v>
@@ -3218,13 +3203,13 @@
         <v>1320438</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3224,13 @@
         <v>2844538</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>2600</v>
@@ -3254,13 +3239,13 @@
         <v>2804717</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>5279</v>
@@ -3269,13 +3254,13 @@
         <v>5649255</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,7 +3335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37886516-A6E6-4372-81C4-7F86B86D7135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5E984B-3175-46BE-A6B5-A737A5A16792}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3367,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3480,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3495,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3525,13 +3510,13 @@
         <v>228940</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>325</v>
@@ -3540,13 +3525,13 @@
         <v>378510</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>567</v>
@@ -3555,13 +3540,13 @@
         <v>607450</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3561,13 @@
         <v>525407</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>567</v>
@@ -3591,13 +3576,13 @@
         <v>616150</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>1087</v>
@@ -3606,13 +3591,13 @@
         <v>1141557</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3716,13 @@
         <v>227097</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H9" s="7">
         <v>189</v>
@@ -3746,13 +3731,13 @@
         <v>217786</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>403</v>
@@ -3761,13 +3746,13 @@
         <v>444883</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3767,13 @@
         <v>1849288</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>1719</v>
@@ -3797,13 +3782,13 @@
         <v>1770514</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>3457</v>
@@ -3812,13 +3797,13 @@
         <v>3619802</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,10 +3925,10 @@
         <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3955,10 +3940,10 @@
         <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -3967,13 +3952,13 @@
         <v>88261</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3973,13 @@
         <v>490702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>502</v>
@@ -4006,10 +3991,10 @@
         <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>953</v>
@@ -4018,13 +4003,13 @@
         <v>1007765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4128,13 @@
         <v>512221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>538</v>
@@ -4158,13 +4143,13 @@
         <v>628373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>1044</v>
@@ -4173,13 +4158,13 @@
         <v>1140594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4179,13 @@
         <v>2865397</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H18" s="7">
         <v>2788</v>
@@ -4209,13 +4194,13 @@
         <v>2903727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M18" s="7">
         <v>5497</v>
@@ -4224,13 +4209,13 @@
         <v>5769124</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,7 +4290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF39DA9-4A67-4A6E-B360-5504080B82B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD7702A-618C-467C-9DCD-9AB15BC8685D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4322,7 +4307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4435,7 +4420,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4444,13 +4429,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4465,7 +4450,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4465,13 @@
         <v>197274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>750</v>
@@ -4495,28 +4480,28 @@
         <v>416844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>1037</v>
       </c>
       <c r="N5" s="7">
-        <v>614118</v>
+        <v>614117</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4516,13 @@
         <v>342706</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H6" s="7">
         <v>674</v>
@@ -4546,13 +4531,13 @@
         <v>415129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M6" s="7">
         <v>1076</v>
@@ -4561,13 +4546,13 @@
         <v>757835</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,7 +4594,7 @@
         <v>2114</v>
       </c>
       <c r="N7" s="7">
-        <v>1374715</v>
+        <v>1374714</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -4656,7 +4641,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4665,13 +4650,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4671,13 @@
         <v>346206</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>525</v>
@@ -4701,13 +4686,13 @@
         <v>398364</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>948</v>
@@ -4716,13 +4701,13 @@
         <v>744570</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4722,13 @@
         <v>1814179</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>2391</v>
@@ -4752,13 +4737,13 @@
         <v>1847946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>3958</v>
@@ -4767,13 +4752,13 @@
         <v>3662125</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,7 +4832,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4877,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4877,13 @@
         <v>116285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -4907,13 +4892,13 @@
         <v>80758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>294</v>
@@ -4922,13 +4907,13 @@
         <v>197043</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4928,13 @@
         <v>555558</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>861</v>
@@ -4958,13 +4943,13 @@
         <v>632969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>1388</v>
@@ -4973,13 +4958,13 @@
         <v>1188528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,7 +5053,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5077,10 +5062,10 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>142</v>
@@ -5098,13 +5083,13 @@
         <v>659765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>1417</v>
@@ -5113,13 +5098,13 @@
         <v>895966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>2279</v>
@@ -5128,13 +5113,13 @@
         <v>1555731</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5134,13 @@
         <v>2712443</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H18" s="7">
         <v>3926</v>
@@ -5164,13 +5149,13 @@
         <v>2896044</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M18" s="7">
         <v>6422</v>
@@ -5179,13 +5164,13 @@
         <v>5608487</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1403-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B80AFFD-7A0C-4F40-9228-2D9C18668247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EFDF88-78FE-449B-93F6-215682FECFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFF085CA-503B-4D72-9F63-2D506A5B6170}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{127DA3A8-AD52-4F8C-8AE2-F4A1C09A7D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="327">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>26,11%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>73,89%</t>
   </si>
   <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,19 +164,19 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>6,79%</t>
@@ -185,31 +185,31 @@
     <t>5,94%</t>
   </si>
   <si>
-    <t>7,73%</t>
+    <t>7,71%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>92,27%</t>
+    <t>92,29%</t>
   </si>
   <si>
     <t>94,06%</t>
@@ -230,19 +230,19 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>6,52%</t>
@@ -251,31 +251,31 @@
     <t>5,11%</t>
   </si>
   <si>
-    <t>8,2%</t>
+    <t>8,4%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>91,8%</t>
+    <t>91,6%</t>
   </si>
   <si>
     <t>94,89%</t>
@@ -287,55 +287,55 @@
     <t>13,04%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>83,05%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -353,55 +353,55 @@
     <t>35,12%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>42,46%</t>
   </si>
   <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
   </si>
   <si>
     <t>39,36%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
   </si>
   <si>
     <t>64,88%</t>
   </si>
   <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
   </si>
   <si>
     <t>57,54%</t>
   </si>
   <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
   </si>
   <si>
     <t>60,64%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -410,25 +410,22 @@
     <t>9,67%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>9,84%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>8,13%</t>
+    <t>8,01%</t>
   </si>
   <si>
     <t>10,1%</t>
@@ -437,19 +434,16 @@
     <t>90,33%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>90,16%</t>
   </si>
   <si>
     <t>90,96%</t>
@@ -458,7 +452,7 @@
     <t>89,9%</t>
   </si>
   <si>
-    <t>91,87%</t>
+    <t>91,99%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -473,7 +467,7 @@
     <t>8,95%</t>
   </si>
   <si>
-    <t>6,38%</t>
+    <t>6,5%</t>
   </si>
   <si>
     <t>12,08%</t>
@@ -482,16 +476,16 @@
     <t>6,87%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>6,16%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>91,05%</t>
@@ -500,79 +494,79 @@
     <t>87,92%</t>
   </si>
   <si>
-    <t>93,62%</t>
+    <t>93,5%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>92,06%</t>
   </si>
   <si>
-    <t>93,84%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>79,01%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>81,05%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -584,55 +578,55 @@
     <t>30,35%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
   </si>
   <si>
     <t>34,73%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
   </si>
   <si>
     <t>69,65%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -641,49 +635,49 @@
     <t>10,94%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>10,95%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>89,05%</t>
   </si>
   <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -695,85 +689,103 @@
     <t>10,27%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>9,87%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>90,13%</t>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>80,71%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
@@ -965,9 +977,6 @@
     <t>19,56%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
     <t>21,0%</t>
   </si>
   <si>
@@ -993,9 +1002,6 @@
   </si>
   <si>
     <t>79,0%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
   </si>
   <si>
     <t>76,3%</t>
@@ -1425,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8037F048-7F8E-4CE7-844B-B7764754580C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED0C6DE-24C1-4D3E-8860-7ED484D9EFCD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1854,7 +1860,7 @@
         <v>1529</v>
       </c>
       <c r="D10" s="7">
-        <v>1574788</v>
+        <v>1574789</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1905,7 +1911,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2266,7 +2272,7 @@
         <v>2777</v>
       </c>
       <c r="D18" s="7">
-        <v>2849324</v>
+        <v>2849323</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>90</v>
@@ -2317,7 +2323,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2380,7 +2386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4586FE-9516-4E11-BF60-AB189154577A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7FE309-16C2-4F32-A3B9-2DE06086E005}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2779,10 +2785,10 @@
         <v>125</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>305</v>
@@ -2791,13 +2797,13 @@
         <v>335993</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2818,13 @@
         <v>1774064</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>1501</v>
@@ -2827,28 +2833,28 @@
         <v>1608492</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>3184</v>
       </c>
       <c r="N10" s="7">
-        <v>3382556</v>
+        <v>3382557</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,7 +2896,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2922,7 +2928,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2937,7 +2943,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2952,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2973,13 @@
         <v>43087</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -2982,13 +2988,13 @@
         <v>31514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2997,13 +3003,13 @@
         <v>74600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3024,13 @@
         <v>438094</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>387</v>
@@ -3033,13 +3039,13 @@
         <v>427117</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>788</v>
@@ -3048,13 +3054,13 @@
         <v>865212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3179,13 @@
         <v>575244</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>691</v>
@@ -3188,13 +3194,13 @@
         <v>745194</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>1214</v>
@@ -3203,13 +3209,13 @@
         <v>1320438</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3230,13 @@
         <v>2844538</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H18" s="7">
         <v>2600</v>
@@ -3239,13 +3245,13 @@
         <v>2804717</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M18" s="7">
         <v>5279</v>
@@ -3254,13 +3260,13 @@
         <v>5649255</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,7 +3341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5E984B-3175-46BE-A6B5-A737A5A16792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB592565-3B9C-41CA-9AA8-60D6AFB066BF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3352,7 +3358,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3465,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3480,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3510,13 +3516,13 @@
         <v>228940</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>325</v>
@@ -3525,13 +3531,13 @@
         <v>378510</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>567</v>
@@ -3540,13 +3546,13 @@
         <v>607450</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3567,13 @@
         <v>525407</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H6" s="7">
         <v>567</v>
@@ -3576,13 +3582,13 @@
         <v>616150</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>1087</v>
@@ -3591,13 +3597,13 @@
         <v>1141557</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3722,13 @@
         <v>227097</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H9" s="7">
         <v>189</v>
@@ -3731,13 +3737,13 @@
         <v>217786</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M9" s="7">
         <v>403</v>
@@ -3746,13 +3752,13 @@
         <v>444883</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3773,13 @@
         <v>1849288</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>1719</v>
@@ -3782,13 +3788,13 @@
         <v>1770514</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>3457</v>
@@ -3797,13 +3803,13 @@
         <v>3619802</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3907,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3928,13 @@
         <v>56184</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3940,10 +3946,10 @@
         <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -3952,10 +3958,10 @@
         <v>88261</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>222</v>
@@ -3979,7 +3985,7 @@
         <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>502</v>
@@ -3991,10 +3997,10 @@
         <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>953</v>
@@ -4003,13 +4009,13 @@
         <v>1007765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4134,13 @@
         <v>512221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>538</v>
@@ -4143,13 +4149,13 @@
         <v>628373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>1044</v>
@@ -4158,13 +4164,13 @@
         <v>1140594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4185,13 @@
         <v>2865397</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H18" s="7">
         <v>2788</v>
@@ -4194,13 +4200,13 @@
         <v>2903727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M18" s="7">
         <v>5497</v>
@@ -4209,13 +4215,13 @@
         <v>5769124</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD7702A-618C-467C-9DCD-9AB15BC8685D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4B3F28-4B98-4CEC-95D7-449671DA0512}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4307,7 +4313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4420,7 +4426,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4429,13 +4435,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4450,7 +4456,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4471,13 @@
         <v>197274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>750</v>
@@ -4480,13 +4486,13 @@
         <v>416844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>1037</v>
@@ -4495,13 +4501,13 @@
         <v>614117</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4522,13 @@
         <v>342706</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H6" s="7">
         <v>674</v>
@@ -4531,13 +4537,13 @@
         <v>415129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M6" s="7">
         <v>1076</v>
@@ -4546,13 +4552,13 @@
         <v>757835</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,7 +4656,7 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -4671,13 +4677,13 @@
         <v>346206</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>525</v>
@@ -4686,13 +4692,13 @@
         <v>398364</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>948</v>
@@ -4701,13 +4707,13 @@
         <v>744570</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4728,13 @@
         <v>1814179</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>2391</v>
@@ -4737,13 +4743,13 @@
         <v>1847946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>3958</v>
@@ -4752,13 +4758,13 @@
         <v>3662125</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4838,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4847,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4862,7 +4868,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4883,13 @@
         <v>116285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -4892,13 +4898,13 @@
         <v>80758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>294</v>
@@ -4907,13 +4913,13 @@
         <v>197043</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4934,13 @@
         <v>555558</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>861</v>
@@ -4943,13 +4949,13 @@
         <v>632969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>1388</v>
@@ -4958,13 +4964,13 @@
         <v>1188528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5059,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5062,13 +5068,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5089,13 @@
         <v>659765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>1417</v>
@@ -5098,13 +5104,13 @@
         <v>895966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>2279</v>
@@ -5113,13 +5119,13 @@
         <v>1555731</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5140,13 @@
         <v>2712443</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>167</v>
       </c>
       <c r="H18" s="7">
         <v>3926</v>
@@ -5149,13 +5155,13 @@
         <v>2896044</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M18" s="7">
         <v>6422</v>
@@ -5164,13 +5170,13 @@
         <v>5608487</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1403-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82911CE-4D8E-4692-9DE8-EC498A18D311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D71F257-B438-41DF-B04B-5696429D0849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE32A29E-E935-4F46-887E-9F22EED97B65}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7C5A88BA-92E2-4275-B6F3-242B5CBAD57C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -728,214 +728,208 @@
     <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>36,53%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAB0107-F4F0-436E-8657-7943D32835C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB43ACF-91B1-47DE-A902-841366155D12}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1549,7 +1543,7 @@
         <v>1621</v>
       </c>
       <c r="N5" s="7">
-        <v>1636651</v>
+        <v>1636650</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1600,7 +1594,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1674,7 +1668,7 @@
         <v>1529</v>
       </c>
       <c r="D8" s="7">
-        <v>1574788</v>
+        <v>1574789</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1725,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1984,7 +1978,7 @@
         <v>2777</v>
       </c>
       <c r="D14" s="7">
-        <v>2849324</v>
+        <v>2849323</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1999,7 +1993,7 @@
         <v>2741</v>
       </c>
       <c r="I14" s="7">
-        <v>2806398</v>
+        <v>2806397</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2014,7 +2008,7 @@
         <v>5518</v>
       </c>
       <c r="N14" s="7">
-        <v>5655720</v>
+        <v>5655721</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2035,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2044,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEA57E6-D999-4B87-B7DE-3570D1C787EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF96FAD-61B5-4A9F-B1C2-5F2191F704A8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2455,7 +2449,7 @@
         <v>3184</v>
       </c>
       <c r="N8" s="7">
-        <v>3382557</v>
+        <v>3382556</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2506,7 +2500,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2610,7 +2604,7 @@
         <v>788</v>
       </c>
       <c r="N11" s="7">
-        <v>865212</v>
+        <v>865213</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2661,7 +2655,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2849,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2903E092-5E28-4B62-A538-4F54D31826A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E70265-BB3A-44C7-A7A6-12F880F054AA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3361,7 +3355,7 @@
         <v>953</v>
       </c>
       <c r="N11" s="7">
-        <v>1007765</v>
+        <v>1007766</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>207</v>
@@ -3412,7 +3406,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3600,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A52D20-0F69-48E8-B330-B010AB3DC0D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9B89EC-71C5-4F00-87A5-97D86B1AB80F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,7 +3715,7 @@
         <v>287</v>
       </c>
       <c r="D4" s="7">
-        <v>197274</v>
+        <v>185268</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3736,7 +3730,7 @@
         <v>750</v>
       </c>
       <c r="I4" s="7">
-        <v>416844</v>
+        <v>375862</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3751,7 +3745,7 @@
         <v>1037</v>
       </c>
       <c r="N4" s="7">
-        <v>614117</v>
+        <v>561130</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3772,7 +3766,7 @@
         <v>402</v>
       </c>
       <c r="D5" s="7">
-        <v>342706</v>
+        <v>328125</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3787,7 +3781,7 @@
         <v>674</v>
       </c>
       <c r="I5" s="7">
-        <v>415129</v>
+        <v>376185</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3802,7 +3796,7 @@
         <v>1076</v>
       </c>
       <c r="N5" s="7">
-        <v>757835</v>
+        <v>704310</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3823,7 +3817,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539980</v>
+        <v>513393</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3832,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831973</v>
+        <v>752047</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3853,7 +3847,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>1371952</v>
+        <v>1265440</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3876,25 +3870,25 @@
         <v>423</v>
       </c>
       <c r="D7" s="7">
-        <v>346206</v>
+        <v>324373</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>525</v>
       </c>
       <c r="I7" s="7">
-        <v>398364</v>
+        <v>469185</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>250</v>
@@ -3906,7 +3900,7 @@
         <v>948</v>
       </c>
       <c r="N7" s="7">
-        <v>744570</v>
+        <v>793558</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>252</v>
@@ -3927,7 +3921,7 @@
         <v>1567</v>
       </c>
       <c r="D8" s="7">
-        <v>1814179</v>
+        <v>1964427</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>255</v>
@@ -3936,16 +3930,16 @@
         <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>2391</v>
       </c>
       <c r="I8" s="7">
-        <v>1847946</v>
+        <v>1765680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>258</v>
@@ -3957,7 +3951,7 @@
         <v>3958</v>
       </c>
       <c r="N8" s="7">
-        <v>3662125</v>
+        <v>3730108</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>260</v>
@@ -3978,7 +3972,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160385</v>
+        <v>2288800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3993,7 +3987,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2246310</v>
+        <v>2234865</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4008,7 +4002,7 @@
         <v>4906</v>
       </c>
       <c r="N9" s="7">
-        <v>4406695</v>
+        <v>4523666</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4031,7 +4025,7 @@
         <v>152</v>
       </c>
       <c r="D10" s="7">
-        <v>116285</v>
+        <v>110875</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>263</v>
@@ -4046,7 +4040,7 @@
         <v>142</v>
       </c>
       <c r="I10" s="7">
-        <v>80758</v>
+        <v>73746</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>266</v>
@@ -4055,22 +4049,22 @@
         <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>294</v>
       </c>
       <c r="N10" s="7">
-        <v>197043</v>
+        <v>184620</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,46 +4076,46 @@
         <v>527</v>
       </c>
       <c r="D11" s="7">
-        <v>555558</v>
+        <v>534569</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>861</v>
       </c>
       <c r="I11" s="7">
-        <v>632969</v>
+        <v>586557</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1388</v>
       </c>
       <c r="N11" s="7">
-        <v>1188528</v>
+        <v>1121127</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4127,7 @@
         <v>679</v>
       </c>
       <c r="D12" s="7">
-        <v>671843</v>
+        <v>645444</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4148,7 +4142,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713727</v>
+        <v>660303</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4157,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1385571</v>
+        <v>1305747</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4186,46 +4180,46 @@
         <v>862</v>
       </c>
       <c r="D13" s="7">
-        <v>659765</v>
+        <v>620516</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>1417</v>
       </c>
       <c r="I13" s="7">
-        <v>895966</v>
+        <v>918793</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>2279</v>
       </c>
       <c r="N13" s="7">
-        <v>1555731</v>
+        <v>1539309</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,46 +4231,46 @@
         <v>2496</v>
       </c>
       <c r="D14" s="7">
-        <v>2712443</v>
+        <v>2827121</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>3926</v>
       </c>
       <c r="I14" s="7">
-        <v>2896044</v>
+        <v>2728423</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>6422</v>
       </c>
       <c r="N14" s="7">
-        <v>5608487</v>
+        <v>5555544</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4282,7 @@
         <v>3358</v>
       </c>
       <c r="D15" s="7">
-        <v>3372208</v>
+        <v>3447637</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4303,7 +4297,7 @@
         <v>5343</v>
       </c>
       <c r="I15" s="7">
-        <v>3792010</v>
+        <v>3647216</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4312,7 @@
         <v>8701</v>
       </c>
       <c r="N15" s="7">
-        <v>7164218</v>
+        <v>7094853</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
